--- a/data/Laporan.xlsx
+++ b/data/Laporan.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJECT\RPA\SoftwareIntegrationEcommerce\data\Laporan\06-18-2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJECT\RPA\SoftwareIntegrationEcommerce\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F6DF36C-870F-4794-AE35-0119E8569F3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16D73A5F-85A1-4696-90B3-1F3DB0746FF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,33 +20,57 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>Nama Produk</t>
-  </si>
-  <si>
-    <t>Harga Jual</t>
-  </si>
-  <si>
-    <t>No Invoice</t>
-  </si>
-  <si>
-    <t>Tanggal Pesanan</t>
-  </si>
-  <si>
-    <t>Jumlah</t>
-  </si>
-  <si>
-    <t>Berat</t>
-  </si>
-  <si>
-    <t>Voucher Ecommerce</t>
-  </si>
-  <si>
-    <t>Voucher Toko</t>
-  </si>
-  <si>
-    <t>Total Harga</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+  <si>
+    <t>no_invoice</t>
+  </si>
+  <si>
+    <t>ecommerce</t>
+  </si>
+  <si>
+    <t>nama_pembeli</t>
+  </si>
+  <si>
+    <t>tanggal_pesanan</t>
+  </si>
+  <si>
+    <t>jumlah</t>
+  </si>
+  <si>
+    <t>harga_jual</t>
+  </si>
+  <si>
+    <t>berat</t>
+  </si>
+  <si>
+    <t>voucher_penjual</t>
+  </si>
+  <si>
+    <t>voucher_ecommerce</t>
+  </si>
+  <si>
+    <t>diskon_dari_penjual</t>
+  </si>
+  <si>
+    <t>diskon_dari_ecommerce</t>
+  </si>
+  <si>
+    <t>ongkir</t>
+  </si>
+  <si>
+    <t>biaya_pengiriman</t>
+  </si>
+  <si>
+    <t>biaya_asuransi</t>
+  </si>
+  <si>
+    <t>kurir</t>
+  </si>
+  <si>
+    <t>total_harga</t>
+  </si>
+  <si>
+    <t>nama_produk</t>
   </si>
 </sst>
 </file>
@@ -423,39 +447,65 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{608A1F2F-CF5B-4B87-BA46-BD17BC1DC7C1}">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:Q1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>7</v>
       </c>
       <c r="H1" t="s">
         <v>6</v>
       </c>
       <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
         <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
